--- a/uploads/soal.xlsx
+++ b/uploads/soal.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonisetiabudi/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16380" windowHeight="8205" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="4"/>
     </ext>
@@ -30,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Pertanyaan</t>
   </si>
@@ -50,9 +42,6 @@
     <t>Jawaban</t>
   </si>
   <si>
-    <t>Parent Soal</t>
-  </si>
-  <si>
     <t>Siapa Nama Presiden Indonesia pertama?</t>
   </si>
   <si>
@@ -81,6 +70,30 @@
   </si>
   <si>
     <t>7 Maret 1991</t>
+  </si>
+  <si>
+    <t>Pilihan 5</t>
+  </si>
+  <si>
+    <t>Pilihan 6</t>
+  </si>
+  <si>
+    <t>Pilihan 7</t>
+  </si>
+  <si>
+    <t>Pilihan 8</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>efgh</t>
+  </si>
+  <si>
+    <t>ijkl</t>
+  </si>
+  <si>
+    <t>mnop</t>
   </si>
 </sst>
 </file>
@@ -259,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -294,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -471,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,25 +492,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="43.5" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" customWidth="1"/>
-    <col min="8" max="1025" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
+    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="1025" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,49 +527,82 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
